--- a/docs/Buildings.xlsx
+++ b/docs/Buildings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>newBuilding</t>
   </si>
@@ -30,43 +30,25 @@
     <t>name</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>cs1</t>
+  </si>
+  <si>
     <t>True</t>
   </si>
   <si>
+    <t>[3]</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>Supelec1</t>
-  </si>
-  <si>
-    <t>Supelec2</t>
-  </si>
-  <si>
-    <t>Supelec3</t>
-  </si>
-  <si>
-    <t>CS1</t>
-  </si>
-  <si>
-    <t>CS2</t>
-  </si>
-  <si>
-    <t>CS3</t>
-  </si>
-  <si>
-    <t>CS4</t>
-  </si>
-  <si>
-    <t>CS5</t>
-  </si>
-  <si>
-    <t>CS6</t>
-  </si>
-  <si>
-    <t>CS7</t>
-  </si>
-  <si>
-    <t>CS8</t>
+    <t>s2</t>
   </si>
 </sst>
 </file>
@@ -418,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,103 +413,46 @@
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Buildings.xlsx
+++ b/docs/Buildings.xlsx
@@ -39,16 +39,16 @@
     <t>cs1</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>[3]</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>s2</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
